--- a/HelaMedical/File/Person.xlsx
+++ b/HelaMedical/File/Person.xlsx
@@ -26,12 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>Долбик-Воробей Роман Анатольевич</t>
   </si>
 </sst>
 </file>
@@ -350,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,36 +369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HelaMedical/File/Person.xlsx
+++ b/HelaMedical/File/Person.xlsx
@@ -347,25 +347,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>123</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
